--- a/Practise Exercise-1.xlsx
+++ b/Practise Exercise-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\9june\Assignments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS\2. June\9\practice_exercise_1_5_June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BC7128-CC58-406E-A17E-B9590A6ABE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B88F67-BDB1-49DF-8D71-E22674EB21B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index, Match" sheetId="3" r:id="rId1"/>
@@ -1199,8 +1199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
@@ -1514,15 +1514,15 @@
         <v>19</v>
       </c>
       <c r="C23" s="2">
-        <f>INDEX($C$6:$N$10,1,1)</f>
+        <f>INDEX(C6:N10,1,1)</f>
         <v>55</v>
       </c>
       <c r="D23" s="2">
-        <f>INDEX($C$6:$N$10,1,2)</f>
+        <f t="shared" ref="D23:E27" si="0">INDEX(D6:O10,1,1)</f>
         <v>51</v>
       </c>
       <c r="E23" s="2">
-        <f>INDEX($C$6:$N$10,1,3)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
@@ -1531,15 +1531,15 @@
         <v>20</v>
       </c>
       <c r="C24" s="2">
-        <f>INDEX($C$6:$N$10,2,1)</f>
+        <f>INDEX(C7:N11,1,1)</f>
         <v>57</v>
       </c>
       <c r="D24" s="2">
-        <f>INDEX($C$6:$N$10,2,2)</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="E24" s="2">
-        <f>INDEX($C$6:$N$10,2,3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1548,15 +1548,15 @@
         <v>21</v>
       </c>
       <c r="C25" s="2">
-        <f>INDEX($C$6:$N$10,3,1)</f>
+        <f t="shared" ref="C24:C27" si="1">INDEX(C8:N12,1,1)</f>
         <v>58</v>
       </c>
       <c r="D25" s="2">
-        <f>INDEX($C$6:$N$10,3,2)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E25" s="2">
-        <f>INDEX($C$6:$N$10,3,3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
@@ -1565,15 +1565,15 @@
         <v>22</v>
       </c>
       <c r="C26" s="2">
-        <f>INDEX($C$6:$N$10,4,1)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D26" s="2">
-        <f>INDEX($C$6:$N$10,4,2)</f>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E26" s="2">
-        <f>INDEX($C$6:$N$10,4,3)</f>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -1582,15 +1582,15 @@
         <v>23</v>
       </c>
       <c r="C27" s="2">
-        <f>INDEX($C$6:$N$10,5,1)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="D27" s="2">
-        <f>INDEX($C$6:$N$10,5,2)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="E27" s="2">
-        <f>INDEX($C$6:$N$10,5,3)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
     </row>
@@ -1633,14 +1633,14 @@
         <v>9</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" ref="C38:C41" si="0">MATCH($B38,$C$5:$N$5,0)</f>
+        <f t="shared" ref="C38:C41" si="2">MATCH($B38,$C$5:$N$5,0)</f>
         <v>9</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>21</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" ref="G38:G39" si="1">MATCH($F38,$B$6:$B$10,0)</f>
+        <f t="shared" ref="G38:G39" si="3">MATCH($F38,$B$6:$B$10,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -1649,14 +1649,14 @@
         <v>10</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -1693,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
